--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,29 +415,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>dvwvv</v>
+        <v>anntaragni black mein daaru</v>
       </c>
       <c r="B2">
-        <v>3232</v>
+        <v>30000</v>
       </c>
       <c r="C2" t="str">
-        <v>7777-06-05</v>
+        <v>2025-10-18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>salary</v>
+        <v>Hackathon prize money</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>150000</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-06-13</v>
+        <v>2025-08-01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve">Intern ke paise </v>
+      </c>
+      <c r="B4">
+        <v>499999</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-07-20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>